--- a/experiment_results/final-ant/analysis.xlsx
+++ b/experiment_results/final-ant/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryedida/Desktop/menzies/dnn-less-data/experiment_results/final-ant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0174EF-F61E-AF44-8EE5-F06570F0163E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21549AC-10A2-F546-89EB-2B9E0520020C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" xr2:uid="{7F1ADA03-CF08-3C48-B918-B6E220B56D2F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="139">
   <si>
     <t>Our method</t>
   </si>
@@ -415,6 +415,39 @@
   </si>
   <si>
     <t>62.3 (1.8)</t>
+  </si>
+  <si>
+    <t>200 iterations, 15 seconds</t>
+  </si>
+  <si>
+    <t>None on this data.</t>
+  </si>
+  <si>
+    <t>X12013410</t>
+  </si>
+  <si>
+    <t>33.3 (0.6)</t>
+  </si>
+  <si>
+    <t>32.2 (1.7)</t>
+  </si>
+  <si>
+    <t>19.8 (0.6)</t>
+  </si>
+  <si>
+    <t>5.2 (0.4)</t>
+  </si>
+  <si>
+    <t>92.5 (5.0)</t>
+  </si>
+  <si>
+    <t>27.5 (17.5)</t>
+  </si>
+  <si>
+    <t>20.4 (0.7)</t>
+  </si>
+  <si>
+    <t>30.6 (4.4)</t>
   </si>
 </sst>
 </file>
@@ -538,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -579,6 +612,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -587,6 +635,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -905,14 +965,16 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9" bestFit="1" customWidth="1"/>
@@ -922,6 +984,9 @@
     <col min="13" max="13" width="6.33203125" customWidth="1"/>
     <col min="14" max="14" width="6.1640625" style="13" customWidth="1"/>
     <col min="15" max="15" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" customWidth="1"/>
+    <col min="17" max="17" width="6" customWidth="1"/>
+    <col min="18" max="18" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1050,7 +1115,7 @@
       <c r="N3" s="13">
         <v>47</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="29" t="s">
         <v>118</v>
       </c>
       <c r="P3" s="17">
@@ -1062,7 +1127,9 @@
       <c r="R3" s="17">
         <v>47.7</v>
       </c>
-      <c r="S3" s="13"/>
+      <c r="S3" s="26" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
@@ -1105,7 +1172,7 @@
       <c r="N4" s="13">
         <v>35</v>
       </c>
-      <c r="O4" s="25"/>
+      <c r="O4" s="30"/>
       <c r="P4" s="23">
         <v>41.8</v>
       </c>
@@ -1115,7 +1182,7 @@
       <c r="R4" s="23">
         <v>54.2</v>
       </c>
-      <c r="S4" s="13"/>
+      <c r="S4" s="27"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
@@ -1158,7 +1225,7 @@
       <c r="N5" s="13">
         <v>32</v>
       </c>
-      <c r="O5" s="25"/>
+      <c r="O5" s="30"/>
       <c r="P5" s="23">
         <v>24.8</v>
       </c>
@@ -1168,7 +1235,7 @@
       <c r="R5" s="23">
         <v>37.299999999999997</v>
       </c>
-      <c r="S5" s="13"/>
+      <c r="S5" s="27"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
@@ -1211,7 +1278,7 @@
       <c r="N6" s="23">
         <v>40</v>
       </c>
-      <c r="O6" s="25"/>
+      <c r="O6" s="30"/>
       <c r="P6" s="23">
         <v>28.3</v>
       </c>
@@ -1221,7 +1288,7 @@
       <c r="R6" s="23">
         <v>39.1</v>
       </c>
-      <c r="S6" s="13"/>
+      <c r="S6" s="27"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
@@ -1264,7 +1331,7 @@
       <c r="N7" s="23">
         <v>18</v>
       </c>
-      <c r="O7" s="25"/>
+      <c r="O7" s="30"/>
       <c r="P7" s="23">
         <v>22.6</v>
       </c>
@@ -1274,7 +1341,7 @@
       <c r="R7" s="23">
         <v>32.9</v>
       </c>
-      <c r="S7" s="13"/>
+      <c r="S7" s="27"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
@@ -1317,7 +1384,7 @@
       <c r="N8" s="23">
         <v>47</v>
       </c>
-      <c r="O8" s="25"/>
+      <c r="O8" s="30"/>
       <c r="P8" s="23">
         <v>44.7</v>
       </c>
@@ -1327,7 +1394,7 @@
       <c r="R8" s="23">
         <v>55.6</v>
       </c>
-      <c r="S8" s="13"/>
+      <c r="S8" s="27"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
@@ -1370,7 +1437,7 @@
       <c r="N9" s="23">
         <v>49</v>
       </c>
-      <c r="O9" s="25"/>
+      <c r="O9" s="30"/>
       <c r="P9" s="23">
         <v>46.1</v>
       </c>
@@ -1380,7 +1447,7 @@
       <c r="R9" s="23">
         <v>54.6</v>
       </c>
-      <c r="S9" s="13"/>
+      <c r="S9" s="27"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
@@ -1423,7 +1490,7 @@
       <c r="N10" s="23">
         <v>52</v>
       </c>
-      <c r="O10" s="25"/>
+      <c r="O10" s="30"/>
       <c r="P10" s="23">
         <v>49.1</v>
       </c>
@@ -1433,7 +1500,7 @@
       <c r="R10" s="23">
         <v>58.7</v>
       </c>
-      <c r="S10" s="13"/>
+      <c r="S10" s="27"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
@@ -1476,7 +1543,7 @@
       <c r="N11" s="23">
         <v>75</v>
       </c>
-      <c r="O11" s="25"/>
+      <c r="O11" s="30"/>
       <c r="P11" s="23">
         <v>73.3</v>
       </c>
@@ -1486,7 +1553,7 @@
       <c r="R11" s="23">
         <v>50.2</v>
       </c>
-      <c r="S11" s="13"/>
+      <c r="S11" s="27"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
@@ -1529,7 +1596,7 @@
       <c r="N12" s="23">
         <v>75</v>
       </c>
-      <c r="O12" s="25"/>
+      <c r="O12" s="30"/>
       <c r="P12" s="23">
         <v>70.900000000000006</v>
       </c>
@@ -1539,7 +1606,7 @@
       <c r="R12" s="23">
         <v>60.5</v>
       </c>
-      <c r="S12" s="13"/>
+      <c r="S12" s="27"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
@@ -1582,7 +1649,7 @@
       <c r="N13" s="23">
         <v>81</v>
       </c>
-      <c r="O13" s="25"/>
+      <c r="O13" s="30"/>
       <c r="P13" s="23">
         <v>73.7</v>
       </c>
@@ -1592,7 +1659,7 @@
       <c r="R13" s="23">
         <v>55.8</v>
       </c>
-      <c r="S13" s="13"/>
+      <c r="S13" s="27"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
@@ -1635,7 +1702,7 @@
       <c r="N14" s="23">
         <v>78</v>
       </c>
-      <c r="O14" s="25"/>
+      <c r="O14" s="30"/>
       <c r="P14" s="23">
         <v>75</v>
       </c>
@@ -1645,21 +1712,40 @@
       <c r="R14" s="23">
         <v>75.400000000000006</v>
       </c>
-      <c r="S14" s="13"/>
+      <c r="S14" s="27"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="K15" s="13"/>
+      <c r="C15" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>133</v>
+      </c>
       <c r="L15" s="12">
         <v>30</v>
       </c>
@@ -1669,7 +1755,7 @@
       <c r="N15" s="23">
         <v>46</v>
       </c>
-      <c r="O15" s="25"/>
+      <c r="O15" s="30"/>
       <c r="P15" s="23">
         <v>45.5</v>
       </c>
@@ -1679,7 +1765,7 @@
       <c r="R15" s="23">
         <v>47.6</v>
       </c>
-      <c r="S15" s="13"/>
+      <c r="S15" s="27"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
@@ -1703,7 +1789,7 @@
       <c r="N16" s="23">
         <v>51</v>
       </c>
-      <c r="O16" s="25"/>
+      <c r="O16" s="30"/>
       <c r="P16" s="23">
         <v>51.1</v>
       </c>
@@ -1713,7 +1799,7 @@
       <c r="R16" s="23">
         <v>53.3</v>
       </c>
-      <c r="S16" s="13"/>
+      <c r="S16" s="27"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
@@ -1737,7 +1823,7 @@
       <c r="N17" s="23">
         <v>66</v>
       </c>
-      <c r="O17" s="25"/>
+      <c r="O17" s="30"/>
       <c r="P17" s="23">
         <v>64.7</v>
       </c>
@@ -1747,7 +1833,7 @@
       <c r="R17" s="23">
         <v>51.8</v>
       </c>
-      <c r="S17" s="13"/>
+      <c r="S17" s="27"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
@@ -1772,7 +1858,7 @@
       <c r="N18" s="22">
         <v>26</v>
       </c>
-      <c r="O18" s="26"/>
+      <c r="O18" s="31"/>
       <c r="P18" s="22">
         <v>16</v>
       </c>
@@ -1782,7 +1868,7 @@
       <c r="R18" s="22">
         <v>23.8</v>
       </c>
-      <c r="S18" s="22"/>
+      <c r="S18" s="28"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -1799,9 +1885,12 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="K19" s="13"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="13"/>
-      <c r="O19" s="7"/>
+      <c r="L19" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="33"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
@@ -1816,9 +1905,10 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="K20" s="13"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="13"/>
-      <c r="O20" s="7"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="35"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
@@ -1833,9 +1923,10 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="K21" s="13"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="13"/>
-      <c r="O21" s="7"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="35"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
@@ -1850,9 +1941,10 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="K22" s="13"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="13"/>
-      <c r="O22" s="7"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="35"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
@@ -1867,9 +1959,10 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="K23" s="13"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="13"/>
-      <c r="O23" s="7"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="35"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
@@ -1884,9 +1977,10 @@
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="K24" s="13"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="13"/>
-      <c r="O24" s="7"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="35"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
@@ -1901,9 +1995,10 @@
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="K25" s="13"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="13"/>
-      <c r="O25" s="7"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="35"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
@@ -1918,9 +2013,10 @@
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="K26" s="13"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="13"/>
-      <c r="O26" s="7"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="35"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
@@ -1935,9 +2031,10 @@
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="K27" s="13"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="13"/>
-      <c r="O27" s="7"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="35"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
@@ -1952,9 +2049,10 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="K28" s="13"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="13"/>
-      <c r="O28" s="7"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="35"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
@@ -1969,9 +2067,10 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="K29" s="13"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="13"/>
-      <c r="O29" s="7"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="35"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
@@ -1986,9 +2085,10 @@
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="K30" s="13"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="13"/>
-      <c r="O30" s="7"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="35"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
@@ -2003,9 +2103,10 @@
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="K31" s="13"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="13"/>
-      <c r="O31" s="7"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="35"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
@@ -2020,9 +2121,10 @@
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="K32" s="13"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="13"/>
-      <c r="O32" s="7"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="35"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
@@ -2037,9 +2139,10 @@
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="K33" s="13"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="13"/>
-      <c r="O33" s="7"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="35"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
@@ -2054,14 +2157,17 @@
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="K34" s="13"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="13"/>
-      <c r="O34" s="7"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="O3:O18"/>
     <mergeCell ref="P1:S1"/>
+    <mergeCell ref="S3:S18"/>
+    <mergeCell ref="L19:O34"/>
     <mergeCell ref="A3:A18"/>
     <mergeCell ref="A19:A34"/>
     <mergeCell ref="G1:K1"/>

--- a/experiment_results/final-ant/analysis.xlsx
+++ b/experiment_results/final-ant/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryedida/Desktop/menzies/dnn-less-data/experiment_results/final-ant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747F06A7-F95C-2A45-A597-F4E93768BAA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962BAC60-DCCB-8042-83CD-0D707036F278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" xr2:uid="{7F1ADA03-CF08-3C48-B918-B6E220B56D2F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="164">
   <si>
     <t>Our method</t>
   </si>
@@ -475,6 +475,54 @@
   </si>
   <si>
     <t>13.9 (0.4)</t>
+  </si>
+  <si>
+    <t>58.8 (0.0)</t>
+  </si>
+  <si>
+    <t>36.6 (4.6)</t>
+  </si>
+  <si>
+    <t>X12012310</t>
+  </si>
+  <si>
+    <t>4.6 (0.4)</t>
+  </si>
+  <si>
+    <t>5.2 (0.5)</t>
+  </si>
+  <si>
+    <t>28.3 (6.7)</t>
+  </si>
+  <si>
+    <t>41.7 (7.7)</t>
+  </si>
+  <si>
+    <t>52.3 (1.1)</t>
+  </si>
+  <si>
+    <t>19.4 (0.8)</t>
+  </si>
+  <si>
+    <t>19.4 (2.4)</t>
+  </si>
+  <si>
+    <t>32.4 (0.4)</t>
+  </si>
+  <si>
+    <t>28.0 (0.8)</t>
+  </si>
+  <si>
+    <t>48.1 (18.6)</t>
+  </si>
+  <si>
+    <t>77.8 (3.7)</t>
+  </si>
+  <si>
+    <t>12.0 (0.7)</t>
+  </si>
+  <si>
+    <t>11.3 (0.3)</t>
   </si>
 </sst>
 </file>
@@ -992,7 +1040,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1852,14 +1900,33 @@
       <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="C17" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>151</v>
+      </c>
       <c r="L17" s="11">
         <v>49</v>
       </c>
@@ -1886,15 +1953,33 @@
       <c r="B18" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
+      <c r="C18" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>159</v>
+      </c>
       <c r="L18" s="20">
         <v>23</v>
       </c>

--- a/experiment_results/final-ant/analysis.xlsx
+++ b/experiment_results/final-ant/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryedida/Desktop/menzies/dnn-less-data/experiment_results/final-ant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322CD6AF-D431-6F4E-B3A4-3CB6322D9BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105E3D9E-E28E-BA4A-8214-37ACFE41CFFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15980" xr2:uid="{7F1ADA03-CF08-3C48-B918-B6E220B56D2F}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="192">
   <si>
     <t>MSR</t>
   </si>
@@ -124,12 +124,6 @@
     <t>200 iterations, 15 seconds</t>
   </si>
   <si>
-    <t>None on this data.</t>
-  </si>
-  <si>
-    <t>AST Features (not Semantic)</t>
-  </si>
-  <si>
     <t>59.9 (1.9)</t>
   </si>
   <si>
@@ -142,18 +136,6 @@
     <t>20.6 (0.4)</t>
   </si>
   <si>
-    <t>54.6 (0.7)</t>
-  </si>
-  <si>
-    <t>45.6 (2.7)</t>
-  </si>
-  <si>
-    <t>67.5 (3.0)</t>
-  </si>
-  <si>
-    <t>37.7 (0.3)</t>
-  </si>
-  <si>
     <t>31.3 (3.0)</t>
   </si>
   <si>
@@ -202,18 +184,6 @@
     <t>20.4 (2.7)</t>
   </si>
   <si>
-    <t>49.0 (1.6)</t>
-  </si>
-  <si>
-    <t>64.0 (4.0)</t>
-  </si>
-  <si>
-    <t>39.4 (1.3)</t>
-  </si>
-  <si>
-    <t>49.6 (0.3)</t>
-  </si>
-  <si>
     <t>55.2 (1.4)</t>
   </si>
   <si>
@@ -599,6 +569,45 @@
   </si>
   <si>
     <t>35.2 (1.6)</t>
+  </si>
+  <si>
+    <t>55.7 (0.4)</t>
+  </si>
+  <si>
+    <t>X12013610W</t>
+  </si>
+  <si>
+    <t>78.3 (1.8)</t>
+  </si>
+  <si>
+    <t>43.2 (1.5)</t>
+  </si>
+  <si>
+    <t>3.4 (0.3)</t>
+  </si>
+  <si>
+    <t>X11002310/W</t>
+  </si>
+  <si>
+    <t>Tried</t>
+  </si>
+  <si>
+    <t>Notyet</t>
+  </si>
+  <si>
+    <t>X11002310W</t>
+  </si>
+  <si>
+    <t>51.4 (1.4)</t>
+  </si>
+  <si>
+    <t>66.7 (2.6)</t>
+  </si>
+  <si>
+    <t>43.2 (0.6)</t>
+  </si>
+  <si>
+    <t>8.5 (0.4)</t>
   </si>
 </sst>
 </file>
@@ -622,7 +631,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -638,6 +647,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,7 +749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -747,7 +762,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -756,7 +770,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -774,33 +787,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -823,12 +809,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -839,6 +819,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1153,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF90F9E-5555-1548-9C7F-F2CD3AFCFC11}">
-  <dimension ref="A1:T56"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1168,7 +1149,7 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="5.1640625" customWidth="1"/>
     <col min="14" max="14" width="6.33203125" customWidth="1"/>
@@ -1181,38 +1162,38 @@
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="25" t="s">
+      <c r="C1" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="25" t="s">
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="6" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -1267,7 +1248,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -1275,31 +1256,31 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="11" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>35</v>
       </c>
       <c r="M3" s="10">
         <v>33</v>
@@ -1310,7 +1291,7 @@
       <c r="O3" s="8">
         <v>47</v>
       </c>
-      <c r="P3" s="48" t="s">
+      <c r="P3" s="35" t="s">
         <v>27</v>
       </c>
       <c r="Q3" s="11">
@@ -1322,42 +1303,42 @@
       <c r="S3" s="11">
         <v>47.7</v>
       </c>
-      <c r="T3" s="27" t="s">
+      <c r="T3" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>39</v>
+        <v>59</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -1368,50 +1349,50 @@
       <c r="O4" s="8">
         <v>35</v>
       </c>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="15">
+      <c r="P4" s="36"/>
+      <c r="Q4" s="14">
         <v>41.8</v>
       </c>
-      <c r="R4" s="15">
+      <c r="R4" s="14">
         <v>77.099999999999994</v>
       </c>
-      <c r="S4" s="24">
+      <c r="S4" s="14">
         <v>54.2</v>
       </c>
-      <c r="T4" s="28"/>
+      <c r="T4" s="26"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="44"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>47</v>
+        <v>63</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -1422,1424 +1403,963 @@
       <c r="O5" s="8">
         <v>32</v>
       </c>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="15">
+      <c r="P5" s="36"/>
+      <c r="Q5" s="14">
         <v>24.8</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="14">
         <v>75.2</v>
       </c>
-      <c r="S5" s="17">
+      <c r="S5" s="16">
         <v>37.299999999999997</v>
       </c>
-      <c r="T5" s="28"/>
+      <c r="T5" s="26"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="44"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="16" t="s">
+      <c r="G6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>51</v>
+      <c r="I6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="M6" s="7">
         <v>28</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="14">
         <v>68</v>
       </c>
-      <c r="O6" s="51">
+      <c r="O6" s="38">
         <v>40</v>
       </c>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="15">
+      <c r="P6" s="36"/>
+      <c r="Q6" s="14">
         <v>28.3</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="14">
         <v>63.7</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S6" s="14">
         <v>39.1</v>
       </c>
-      <c r="T6" s="28"/>
+      <c r="T6" s="26"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="15" t="s">
+        <v>185</v>
+      </c>
       <c r="D7" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>53</v>
+      <c r="I7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="14">
         <v>70</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="14">
         <v>18</v>
       </c>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="15">
+      <c r="P7" s="36"/>
+      <c r="Q7" s="14">
         <v>22.6</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="14">
         <v>60</v>
       </c>
-      <c r="S7" s="23">
+      <c r="S7" s="21">
         <v>32.9</v>
       </c>
-      <c r="T7" s="28"/>
+      <c r="T7" s="26"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="15" t="s">
+        <v>185</v>
+      </c>
       <c r="D8" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>59</v>
+        <v>73</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>35</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="14">
         <v>75</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="14">
         <v>47</v>
       </c>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="15">
+      <c r="P8" s="36"/>
+      <c r="Q8" s="14">
         <v>44.7</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="14">
         <v>73.3</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="16">
         <v>55.6</v>
       </c>
-      <c r="T8" s="28"/>
+      <c r="T8" s="26"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="44"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>63</v>
+      <c r="I9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>33</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="14">
         <v>93</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="14">
         <v>49</v>
       </c>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="15">
+      <c r="P9" s="36"/>
+      <c r="Q9" s="14">
         <v>46.1</v>
       </c>
-      <c r="R9" s="15">
+      <c r="R9" s="14">
         <v>67.099999999999994</v>
       </c>
-      <c r="S9" s="15">
+      <c r="S9" s="14">
         <v>54.6</v>
       </c>
-      <c r="T9" s="28"/>
+      <c r="T9" s="26"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>102</v>
+      <c r="I10" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="14">
         <v>97</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="14">
         <v>52</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="15">
+      <c r="P10" s="36"/>
+      <c r="Q10" s="14">
         <v>49.1</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10" s="14">
         <v>73</v>
       </c>
-      <c r="S10" s="15">
+      <c r="S10" s="14">
         <v>58.7</v>
       </c>
-      <c r="T10" s="28"/>
+      <c r="T10" s="26"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>185</v>
+      </c>
       <c r="D11" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>106</v>
+      <c r="I11" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="M11" s="7">
         <v>60</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="14">
         <v>100</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="16">
         <v>75</v>
       </c>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="15">
+      <c r="P11" s="36"/>
+      <c r="Q11" s="14">
         <v>73.3</v>
       </c>
-      <c r="R11" s="15">
+      <c r="R11" s="14">
         <v>38.200000000000003</v>
       </c>
-      <c r="S11" s="15">
+      <c r="S11" s="14">
         <v>50.2</v>
       </c>
-      <c r="T11" s="28"/>
+      <c r="T11" s="26"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="K12" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>185</v>
+        <v>128</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="M12" s="7">
         <v>60</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="14">
         <v>100</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="21">
         <v>75</v>
       </c>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="15">
+      <c r="P12" s="36"/>
+      <c r="Q12" s="14">
         <v>70.900000000000006</v>
       </c>
-      <c r="R12" s="15">
+      <c r="R12" s="14">
         <v>52.7</v>
       </c>
-      <c r="S12" s="15">
+      <c r="S12" s="14">
         <v>60.5</v>
       </c>
-      <c r="T12" s="28"/>
+      <c r="T12" s="26"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="44"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="H13" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>137</v>
+      <c r="I13" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="14">
         <v>96</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="14">
         <v>81</v>
       </c>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="15">
+      <c r="P13" s="36"/>
+      <c r="Q13" s="14">
         <v>73.7</v>
       </c>
-      <c r="R13" s="15">
+      <c r="R13" s="14">
         <v>44.8</v>
       </c>
-      <c r="S13" s="15">
+      <c r="S13" s="14">
         <v>55.8</v>
       </c>
-      <c r="T13" s="28"/>
+      <c r="T13" s="26"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="44"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="J14" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="K14" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>172</v>
+      <c r="I14" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="M14" s="7">
         <v>65</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="14">
         <v>97</v>
       </c>
-      <c r="O14" s="51">
+      <c r="O14" s="38">
         <v>78</v>
       </c>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="15">
+      <c r="P14" s="36"/>
+      <c r="Q14" s="14">
         <v>75</v>
       </c>
-      <c r="R14" s="15">
+      <c r="R14" s="14">
         <v>75.8</v>
       </c>
-      <c r="S14" s="15">
+      <c r="S14" s="14">
         <v>75.400000000000006</v>
       </c>
-      <c r="T14" s="28"/>
+      <c r="T14" s="26"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="44"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="15" t="s">
+        <v>185</v>
+      </c>
       <c r="D15" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>154</v>
+        <v>142</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="M15" s="7">
         <v>30</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="14">
         <v>88</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="14">
         <v>46</v>
       </c>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="15">
+      <c r="P15" s="36"/>
+      <c r="Q15" s="14">
         <v>45.5</v>
       </c>
-      <c r="R15" s="15">
+      <c r="R15" s="14">
         <v>50</v>
       </c>
-      <c r="S15" s="17">
+      <c r="S15" s="16">
         <v>47.6</v>
       </c>
-      <c r="T15" s="28"/>
+      <c r="T15" s="26"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="H16" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>161</v>
+      <c r="I16" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="14">
         <v>93</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O16" s="14">
         <v>51</v>
       </c>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="15">
+      <c r="P16" s="36"/>
+      <c r="Q16" s="14">
         <v>51.1</v>
       </c>
-      <c r="R16" s="15">
+      <c r="R16" s="14">
         <v>55.8</v>
       </c>
-      <c r="S16" s="15">
+      <c r="S16" s="14">
         <v>53.3</v>
       </c>
-      <c r="T16" s="28"/>
+      <c r="T16" s="26"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="39" t="s">
+        <v>186</v>
+      </c>
       <c r="D17" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="H17" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>169</v>
+      <c r="I17" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="14">
         <v>100</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="16">
         <v>66</v>
       </c>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="15">
+      <c r="P17" s="36"/>
+      <c r="Q17" s="14">
         <v>64.7</v>
       </c>
-      <c r="R17" s="15">
+      <c r="R17" s="14">
         <v>43.2</v>
       </c>
-      <c r="S17" s="15">
+      <c r="S17" s="14">
         <v>51.8</v>
       </c>
-      <c r="T17" s="28"/>
+      <c r="T17" s="26"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
-      <c r="B18" s="14" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" s="13" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="13">
+      <c r="I18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" s="12">
         <v>23</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="13">
         <v>28</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O18" s="13">
         <v>26</v>
       </c>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="14">
+      <c r="P18" s="37"/>
+      <c r="Q18" s="13">
         <v>16</v>
       </c>
-      <c r="R18" s="14">
+      <c r="R18" s="13">
         <v>46.4</v>
       </c>
-      <c r="S18" s="14">
+      <c r="S18" s="13">
         <v>23.8</v>
       </c>
-      <c r="T18" s="29"/>
+      <c r="T18" s="27"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="21">
-        <v>40.5</v>
-      </c>
-      <c r="R19" s="21">
-        <v>51.4</v>
-      </c>
-      <c r="S19" s="21">
-        <v>45.3</v>
-      </c>
+      <c r="A19" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="G19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
-      <c r="B20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="15">
-        <v>41.2</v>
-      </c>
-      <c r="R20" s="15">
-        <v>54.7</v>
-      </c>
-      <c r="S20" s="15">
-        <v>47</v>
-      </c>
+      <c r="A20" s="31"/>
+      <c r="B20" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="G20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
-      <c r="B21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="15">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="R21" s="15">
-        <v>55.6</v>
-      </c>
-      <c r="S21" s="15">
-        <v>40.200000000000003</v>
-      </c>
+      <c r="A21" s="31"/>
+      <c r="B21" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="G21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="P21" s="5"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="15">
-        <v>29.7</v>
-      </c>
-      <c r="R22" s="15">
-        <v>51.5</v>
-      </c>
-      <c r="S22" s="15">
-        <v>38.299999999999997</v>
-      </c>
+      <c r="A22" s="31"/>
+      <c r="B22" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="G22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
-      <c r="B23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="15">
-        <v>31.6</v>
-      </c>
-      <c r="R23" s="15">
-        <v>28.6</v>
-      </c>
-      <c r="S23" s="15">
-        <v>30</v>
-      </c>
+      <c r="A23" s="31"/>
+      <c r="B23" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="G23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
-      <c r="B24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="8">
-        <v>45.8</v>
-      </c>
-      <c r="R24" s="8">
-        <v>47.4</v>
-      </c>
-      <c r="S24" s="8">
-        <v>46.6</v>
-      </c>
+      <c r="A24" s="31"/>
+      <c r="B24" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="G24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="P24" s="5"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
-      <c r="B25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="8">
-        <v>50.4</v>
-      </c>
-      <c r="R25" s="8">
-        <v>40.4</v>
-      </c>
-      <c r="S25" s="8">
-        <v>44.8</v>
-      </c>
+      <c r="A25" s="31"/>
+      <c r="B25" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="G25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
-      <c r="B26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="8">
-        <v>55.4</v>
-      </c>
-      <c r="R26" s="8">
-        <v>38.6</v>
-      </c>
-      <c r="S26" s="8">
-        <v>45.5</v>
-      </c>
+      <c r="A26" s="31"/>
+      <c r="B26" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="G26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="P26" s="5"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
-      <c r="B27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="8">
-        <v>69.5</v>
-      </c>
-      <c r="R27" s="8">
-        <v>37.4</v>
-      </c>
-      <c r="S27" s="8">
-        <v>48.4</v>
-      </c>
+      <c r="A27" s="31"/>
+      <c r="B27" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="G27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="P27" s="5"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
-      <c r="B28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="8">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="R28" s="8">
-        <v>53.1</v>
-      </c>
-      <c r="S28" s="8">
-        <v>58.8</v>
-      </c>
+      <c r="A28" s="31"/>
+      <c r="B28" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="G28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="P28" s="5"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
-      <c r="B29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="8">
-        <v>70</v>
-      </c>
-      <c r="R29" s="8">
-        <v>31.6</v>
-      </c>
-      <c r="S29" s="8">
-        <v>43.5</v>
-      </c>
+      <c r="A29" s="31"/>
+      <c r="B29" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="G29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="P29" s="5"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
-      <c r="B30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="8">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="R30" s="8">
-        <v>46.3</v>
-      </c>
-      <c r="S30" s="8">
-        <v>55.6</v>
-      </c>
+      <c r="A30" s="31"/>
+      <c r="B30" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="G30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="P30" s="5"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="B31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="8">
-        <v>51.5</v>
-      </c>
-      <c r="R31" s="8">
-        <v>45.7</v>
-      </c>
-      <c r="S31" s="8">
-        <v>48.4</v>
-      </c>
+      <c r="A31" s="31"/>
+      <c r="B31" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="G31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="P31" s="5"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="8">
-        <v>50.7</v>
-      </c>
-      <c r="R32" s="8">
-        <v>40.5</v>
-      </c>
-      <c r="S32" s="8">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="46"/>
-      <c r="B33" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="8">
-        <v>60.1</v>
-      </c>
-      <c r="R33" s="8">
-        <v>43.5</v>
-      </c>
-      <c r="S33" s="8">
-        <v>50.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
-      <c r="B34" s="12" t="s">
-        <v>17</v>
+      <c r="A32" s="31"/>
+      <c r="B32" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="G32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="P32" s="5"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="31"/>
+      <c r="B33" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="G33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="31"/>
+      <c r="B34" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="14">
-        <v>25.5</v>
-      </c>
-      <c r="R34" s="14">
-        <v>22</v>
-      </c>
-      <c r="S34" s="14">
-        <v>23.6</v>
-      </c>
-      <c r="T34" s="14"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="G35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="42"/>
-      <c r="B36" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="15"/>
+      <c r="G34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="P34" s="5"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="31"/>
+      <c r="B35" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="G35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="P35" s="5"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="31"/>
+      <c r="B36" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="14"/>
       <c r="G36" s="5"/>
       <c r="L36" s="5"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" s="42"/>
-      <c r="B37" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="15"/>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="31"/>
+      <c r="B37" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="14"/>
       <c r="G37" s="5"/>
       <c r="L37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A38" s="42"/>
-      <c r="B38" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="15"/>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="31"/>
+      <c r="B38" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="14"/>
       <c r="G38" s="5"/>
       <c r="L38" s="5"/>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A39" s="42"/>
-      <c r="B39" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="15"/>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="31"/>
+      <c r="B39" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="14"/>
       <c r="G39" s="5"/>
       <c r="L39" s="5"/>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A40" s="42"/>
-      <c r="B40" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" s="15"/>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="31"/>
+      <c r="B40" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="14"/>
       <c r="G40" s="5"/>
       <c r="L40" s="5"/>
       <c r="P40" s="5"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41" s="42"/>
-      <c r="B41" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="G41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="P41" s="5"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A42" s="42"/>
-      <c r="B42" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="G42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="P42" s="5"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A43" s="42"/>
-      <c r="B43" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="15"/>
-      <c r="G43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="P43" s="5"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A44" s="42"/>
-      <c r="B44" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C44" s="15"/>
-      <c r="G44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="P44" s="5"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A45" s="42"/>
-      <c r="B45" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="G45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="P45" s="5"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A46" s="42"/>
-      <c r="B46" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="G46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="P46" s="5"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A47" s="42"/>
-      <c r="B47" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C47" s="15"/>
-      <c r="G47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="P47" s="5"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A48" s="42"/>
-      <c r="B48" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" s="15"/>
-      <c r="G48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="P48" s="5"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="42"/>
-      <c r="B49" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" s="15"/>
-      <c r="G49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="P49" s="5"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="42"/>
-      <c r="B50" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="15"/>
-      <c r="G50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="P50" s="5"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="42"/>
-      <c r="B51" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51" s="15"/>
-      <c r="G51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="P51" s="5"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="42"/>
-      <c r="B52" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="C52" s="15"/>
-      <c r="G52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="P52" s="5"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="42"/>
-      <c r="B53" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="C53" s="15"/>
-      <c r="G53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="P53" s="5"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="42"/>
-      <c r="B54" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C54" s="15"/>
-      <c r="G54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="P54" s="5"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="42"/>
-      <c r="B55" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" s="15"/>
-      <c r="G55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="P55" s="5"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="42"/>
-      <c r="B56" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C56" s="15"/>
-      <c r="G56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="P56" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="8">
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="T3:T18"/>
-    <mergeCell ref="M19:P34"/>
     <mergeCell ref="H1:L1"/>
-    <mergeCell ref="A35:A56"/>
+    <mergeCell ref="A19:A40"/>
     <mergeCell ref="A3:A18"/>
-    <mergeCell ref="A19:A34"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="P3:P18"/>
     <mergeCell ref="C1:G1"/>
